--- a/data/trans_orig/IP22-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAADF901-6A76-43EB-B37C-A01088A1D0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F77D604-C1C0-48E5-91B3-38C51AFDD267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{08ABF77A-3775-4A81-AEED-06A6DDBE733C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{12DD9398-1EA8-4215-BAA9-F885B4788922}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,6 +71,63 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Sí acudí a un centro o servicio</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>Sí acudieron a mi domicilio</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -101,69 +158,129 @@
     <t>75,61%</t>
   </si>
   <si>
-    <t>Sí acudieron a mi domicilio</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>Sí acudí a un centro o servicio</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
     <t>83,89%</t>
   </si>
   <si>
@@ -191,121 +308,52 @@
     <t>87,4%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>78,27%</t>
@@ -335,57 +383,57 @@
     <t>81,2%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
     <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
     <t>67,86%</t>
   </si>
   <si>
@@ -413,52 +461,103 @@
     <t>70,96%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -488,103 +587,55 @@
     <t>84,99%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
   <si>
     <t>72,44%</t>
@@ -611,60 +662,57 @@
     <t>76,08%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
     <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2015 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
     <t>78,87%</t>
   </si>
   <si>
@@ -692,52 +740,121 @@
     <t>80,76%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>83,75%</t>
@@ -767,121 +884,49 @@
     <t>88,09%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>83,26%</t>
@@ -911,54 +956,39 @@
     <t>84,37%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
     <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
     <t>81,53%</t>
   </si>
   <si>
@@ -986,34 +1016,91 @@
     <t>85,38%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
   </si>
   <si>
     <t>86,68%</t>
@@ -1043,91 +1130,34 @@
     <t>88,26%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>82,33%</t>
@@ -1149,36 +1179,6 @@
   </si>
   <si>
     <t>86,76%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B919925B-3C4B-4B62-925D-122F03B8407D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576D9F1A-BE37-450F-95A5-6339624CED17}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1688,10 +1688,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>241</v>
+        <v>91</v>
       </c>
       <c r="D4" s="7">
-        <v>160718</v>
+        <v>61176</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1703,10 +1703,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>228</v>
+        <v>90</v>
       </c>
       <c r="I4" s="7">
-        <v>151601</v>
+        <v>57317</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1718,10 +1718,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>469</v>
+        <v>181</v>
       </c>
       <c r="N4" s="7">
-        <v>312318</v>
+        <v>118493</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1790,10 +1790,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="D6" s="7">
-        <v>61176</v>
+        <v>160718</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1805,10 +1805,10 @@
         <v>32</v>
       </c>
       <c r="H6" s="7">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="I6" s="7">
-        <v>57317</v>
+        <v>151601</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>33</v>
@@ -1820,10 +1820,10 @@
         <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>181</v>
+        <v>469</v>
       </c>
       <c r="N6" s="7">
-        <v>118493</v>
+        <v>312318</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1894,10 +1894,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>354</v>
+        <v>73</v>
       </c>
       <c r="D8" s="7">
-        <v>236136</v>
+        <v>48577</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1909,10 +1909,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>340</v>
+        <v>55</v>
       </c>
       <c r="I8" s="7">
-        <v>229554</v>
+        <v>37017</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1924,10 +1924,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>694</v>
+        <v>128</v>
       </c>
       <c r="N8" s="7">
-        <v>465691</v>
+        <v>85594</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1945,10 +1945,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>1347</v>
+        <v>647</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>50</v>
@@ -1975,10 +1975,10 @@
         <v>53</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>1347</v>
+        <v>647</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>54</v>
@@ -1996,10 +1996,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="D10" s="7">
-        <v>44015</v>
+        <v>168817</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>56</v>
@@ -2011,10 +2011,10 @@
         <v>58</v>
       </c>
       <c r="H10" s="7">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="I10" s="7">
-        <v>36049</v>
+        <v>168205</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>59</v>
@@ -2026,10 +2026,10 @@
         <v>61</v>
       </c>
       <c r="M10" s="7">
-        <v>120</v>
+        <v>505</v>
       </c>
       <c r="N10" s="7">
-        <v>80063</v>
+        <v>337022</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>62</v>
@@ -2047,10 +2047,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D11" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -2062,10 +2062,10 @@
         <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I11" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -2077,10 +2077,10 @@
         <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N11" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -2100,10 +2100,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7">
-        <v>168817</v>
+        <v>44015</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>66</v>
@@ -2115,10 +2115,10 @@
         <v>68</v>
       </c>
       <c r="H12" s="7">
-        <v>249</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>168205</v>
+        <v>36049</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>69</v>
@@ -2130,10 +2130,10 @@
         <v>71</v>
       </c>
       <c r="M12" s="7">
-        <v>505</v>
+        <v>120</v>
       </c>
       <c r="N12" s="7">
-        <v>337022</v>
+        <v>80063</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>72</v>
@@ -2151,10 +2151,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>647</v>
+        <v>1347</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>75</v>
@@ -2181,10 +2181,10 @@
         <v>77</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>647</v>
+        <v>1347</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>78</v>
@@ -2202,10 +2202,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>73</v>
+        <v>354</v>
       </c>
       <c r="D14" s="7">
-        <v>48577</v>
+        <v>236136</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>80</v>
@@ -2217,10 +2217,10 @@
         <v>82</v>
       </c>
       <c r="H14" s="7">
-        <v>55</v>
+        <v>340</v>
       </c>
       <c r="I14" s="7">
-        <v>37017</v>
+        <v>229554</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>83</v>
@@ -2232,10 +2232,10 @@
         <v>85</v>
       </c>
       <c r="M14" s="7">
-        <v>128</v>
+        <v>694</v>
       </c>
       <c r="N14" s="7">
-        <v>85594</v>
+        <v>465691</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>86</v>
@@ -2253,10 +2253,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D15" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -2268,10 +2268,10 @@
         <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I15" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -2283,10 +2283,10 @@
         <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N15" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -2306,10 +2306,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>851</v>
+        <v>230</v>
       </c>
       <c r="D16" s="7">
-        <v>565671</v>
+        <v>153767</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2321,10 +2321,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>817</v>
+        <v>199</v>
       </c>
       <c r="I16" s="7">
-        <v>549360</v>
+        <v>130383</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2336,10 +2336,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>1668</v>
+        <v>429</v>
       </c>
       <c r="N16" s="7">
-        <v>1115031</v>
+        <v>284150</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2408,10 +2408,10 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>230</v>
+        <v>851</v>
       </c>
       <c r="D18" s="7">
-        <v>153767</v>
+        <v>565671</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>105</v>
@@ -2423,10 +2423,10 @@
         <v>107</v>
       </c>
       <c r="H18" s="7">
-        <v>199</v>
+        <v>817</v>
       </c>
       <c r="I18" s="7">
-        <v>130383</v>
+        <v>549360</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>108</v>
@@ -2438,10 +2438,10 @@
         <v>110</v>
       </c>
       <c r="M18" s="7">
-        <v>429</v>
+        <v>1668</v>
       </c>
       <c r="N18" s="7">
-        <v>284150</v>
+        <v>1115031</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>111</v>
@@ -2520,7 +2520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B4B76E-5C48-47D9-91FA-85F929CF8676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AD7A7C-1172-462F-AB02-6AB355521303}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2638,10 +2638,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="D4" s="7">
-        <v>161241</v>
+        <v>74303</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>115</v>
@@ -2653,10 +2653,10 @@
         <v>117</v>
       </c>
       <c r="H4" s="7">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="I4" s="7">
-        <v>149741</v>
+        <v>72544</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>118</v>
@@ -2668,10 +2668,10 @@
         <v>120</v>
       </c>
       <c r="M4" s="7">
-        <v>453</v>
+        <v>214</v>
       </c>
       <c r="N4" s="7">
-        <v>310982</v>
+        <v>146847</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>121</v>
@@ -2695,7 +2695,7 @@
         <v>2064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>124</v>
@@ -2713,7 +2713,7 @@
         <v>126</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>127</v>
@@ -2740,10 +2740,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="D6" s="7">
-        <v>74303</v>
+        <v>161241</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>131</v>
@@ -2755,10 +2755,10 @@
         <v>133</v>
       </c>
       <c r="H6" s="7">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>72544</v>
+        <v>149741</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>134</v>
@@ -2770,10 +2770,10 @@
         <v>136</v>
       </c>
       <c r="M6" s="7">
-        <v>214</v>
+        <v>453</v>
       </c>
       <c r="N6" s="7">
-        <v>146847</v>
+        <v>310982</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>137</v>
@@ -2844,49 +2844,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>310</v>
+        <v>90</v>
       </c>
       <c r="D8" s="7">
-        <v>209458</v>
+        <v>65627</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>140</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>84</v>
+      </c>
+      <c r="I8" s="7">
+        <v>60258</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="7">
-        <v>320</v>
-      </c>
-      <c r="I8" s="7">
-        <v>225516</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>174</v>
+      </c>
+      <c r="N8" s="7">
+        <v>125885</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="M8" s="7">
-        <v>630</v>
-      </c>
-      <c r="N8" s="7">
-        <v>434975</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,49 +2895,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2788</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
-        <v>1554</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="I9" s="7">
+        <v>1543</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>1554</v>
+        <v>4331</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,49 +2946,49 @@
         <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>88</v>
+        <v>240</v>
       </c>
       <c r="D10" s="7">
-        <v>60482</v>
+        <v>172834</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="I10" s="7">
-        <v>30895</v>
+        <v>167671</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
-        <v>133</v>
+        <v>475</v>
       </c>
       <c r="N10" s="7">
-        <v>91377</v>
+        <v>340505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="D11" s="7">
-        <v>271494</v>
+        <v>241249</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -3012,10 +3012,10 @@
         <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="I11" s="7">
-        <v>256411</v>
+        <v>229472</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -3027,10 +3027,10 @@
         <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>765</v>
+        <v>655</v>
       </c>
       <c r="N11" s="7">
-        <v>527906</v>
+        <v>470721</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -3050,13 +3050,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>240</v>
+        <v>88</v>
       </c>
       <c r="D12" s="7">
-        <v>172834</v>
+        <v>60482</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>162</v>
@@ -3065,34 +3065,34 @@
         <v>163</v>
       </c>
       <c r="H12" s="7">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="I12" s="7">
-        <v>167671</v>
+        <v>30895</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M12" s="7">
-        <v>475</v>
+        <v>133</v>
       </c>
       <c r="N12" s="7">
-        <v>340505</v>
+        <v>91377</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,49 +3101,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>2788</v>
+        <v>1554</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>170</v>
       </c>
       <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M13" s="7">
         <v>2</v>
       </c>
-      <c r="I13" s="7">
-        <v>1543</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="N13" s="7">
+        <v>1554</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="7">
-        <v>6</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4331</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,25 +3152,25 @@
         <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>90</v>
+        <v>310</v>
       </c>
       <c r="D14" s="7">
-        <v>65627</v>
+        <v>209458</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>175</v>
       </c>
       <c r="H14" s="7">
-        <v>84</v>
+        <v>320</v>
       </c>
       <c r="I14" s="7">
-        <v>60258</v>
+        <v>225516</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>176</v>
@@ -3182,10 +3182,10 @@
         <v>178</v>
       </c>
       <c r="M14" s="7">
-        <v>174</v>
+        <v>630</v>
       </c>
       <c r="N14" s="7">
-        <v>125885</v>
+        <v>434975</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>179</v>
@@ -3203,10 +3203,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="D15" s="7">
-        <v>241249</v>
+        <v>271494</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -3218,10 +3218,10 @@
         <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="I15" s="7">
-        <v>229472</v>
+        <v>256411</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -3233,10 +3233,10 @@
         <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>655</v>
+        <v>765</v>
       </c>
       <c r="N15" s="7">
-        <v>470721</v>
+        <v>527906</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -3256,10 +3256,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>777</v>
+        <v>284</v>
       </c>
       <c r="D16" s="7">
-        <v>543535</v>
+        <v>200412</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>182</v>
@@ -3271,10 +3271,10 @@
         <v>184</v>
       </c>
       <c r="H16" s="7">
-        <v>781</v>
+        <v>237</v>
       </c>
       <c r="I16" s="7">
-        <v>542928</v>
+        <v>163697</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>185</v>
@@ -3286,19 +3286,19 @@
         <v>187</v>
       </c>
       <c r="M16" s="7">
-        <v>1558</v>
+        <v>521</v>
       </c>
       <c r="N16" s="7">
-        <v>1086462</v>
+        <v>364109</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>188</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,13 +3313,13 @@
         <v>6405</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3328,13 +3328,13 @@
         <v>4121</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -3343,13 +3343,13 @@
         <v>10526</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,46 +3358,46 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>284</v>
+        <v>777</v>
       </c>
       <c r="D18" s="7">
-        <v>200412</v>
+        <v>543535</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H18" s="7">
-        <v>237</v>
+        <v>781</v>
       </c>
       <c r="I18" s="7">
-        <v>163697</v>
+        <v>542928</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M18" s="7">
-        <v>521</v>
+        <v>1558</v>
       </c>
       <c r="N18" s="7">
-        <v>364109</v>
+        <v>1086462</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>206</v>
@@ -3470,7 +3470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE1CB02-59FD-4331-BDC9-88C7CE2C4214}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1413C78-B1E9-4F6F-BEB6-50C1D6BDD686}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3588,10 +3588,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7">
-        <v>168117</v>
+        <v>44381</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>208</v>
@@ -3603,10 +3603,10 @@
         <v>210</v>
       </c>
       <c r="H4" s="7">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="I4" s="7">
-        <v>151836</v>
+        <v>46632</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>211</v>
@@ -3618,10 +3618,10 @@
         <v>213</v>
       </c>
       <c r="M4" s="7">
-        <v>501</v>
+        <v>141</v>
       </c>
       <c r="N4" s="7">
-        <v>319953</v>
+        <v>91014</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>214</v>
@@ -3690,10 +3690,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="D6" s="7">
-        <v>44381</v>
+        <v>168117</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>224</v>
@@ -3705,10 +3705,10 @@
         <v>226</v>
       </c>
       <c r="H6" s="7">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="I6" s="7">
-        <v>46632</v>
+        <v>151836</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>227</v>
@@ -3720,10 +3720,10 @@
         <v>229</v>
       </c>
       <c r="M6" s="7">
-        <v>141</v>
+        <v>501</v>
       </c>
       <c r="N6" s="7">
-        <v>91014</v>
+        <v>319953</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>230</v>
@@ -3794,10 +3794,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>319</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7">
-        <v>235169</v>
+        <v>31925</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>233</v>
@@ -3809,10 +3809,10 @@
         <v>235</v>
       </c>
       <c r="H8" s="7">
-        <v>326</v>
+        <v>62</v>
       </c>
       <c r="I8" s="7">
-        <v>234420</v>
+        <v>38582</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>236</v>
@@ -3824,10 +3824,10 @@
         <v>238</v>
       </c>
       <c r="M8" s="7">
-        <v>645</v>
+        <v>109</v>
       </c>
       <c r="N8" s="7">
-        <v>469589</v>
+        <v>70507</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>239</v>
@@ -3845,49 +3845,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>764</v>
+        <v>1914</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>2058</v>
+        <v>2720</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M9" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N9" s="7">
-        <v>2822</v>
+        <v>4634</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,49 +3896,49 @@
         <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>60</v>
+        <v>313</v>
       </c>
       <c r="D10" s="7">
-        <v>44878</v>
+        <v>216213</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>294</v>
       </c>
       <c r="I10" s="7">
-        <v>31292</v>
+        <v>194031</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
-        <v>106</v>
+        <v>607</v>
       </c>
       <c r="N10" s="7">
-        <v>76169</v>
+        <v>410244</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,10 +3947,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D11" s="7">
-        <v>280811</v>
+        <v>250052</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -3962,10 +3962,10 @@
         <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I11" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -3977,10 +3977,10 @@
         <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>755</v>
+        <v>723</v>
       </c>
       <c r="N11" s="7">
-        <v>548581</v>
+        <v>485385</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -4000,49 +4000,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>313</v>
+        <v>60</v>
       </c>
       <c r="D12" s="7">
-        <v>216213</v>
+        <v>44878</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H12" s="7">
-        <v>294</v>
+        <v>46</v>
       </c>
       <c r="I12" s="7">
-        <v>194031</v>
+        <v>31292</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M12" s="7">
-        <v>607</v>
+        <v>106</v>
       </c>
       <c r="N12" s="7">
-        <v>410244</v>
+        <v>76169</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,46 +4051,46 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>764</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
-        <v>1914</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="I13" s="7">
+        <v>2058</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="M13" s="7">
         <v>4</v>
       </c>
-      <c r="I13" s="7">
-        <v>2720</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M13" s="7">
-        <v>7</v>
-      </c>
       <c r="N13" s="7">
-        <v>4634</v>
+        <v>2822</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>271</v>
@@ -4102,10 +4102,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>47</v>
+        <v>319</v>
       </c>
       <c r="D14" s="7">
-        <v>31925</v>
+        <v>235169</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>272</v>
@@ -4117,10 +4117,10 @@
         <v>274</v>
       </c>
       <c r="H14" s="7">
-        <v>62</v>
+        <v>326</v>
       </c>
       <c r="I14" s="7">
-        <v>38582</v>
+        <v>234420</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>275</v>
@@ -4132,10 +4132,10 @@
         <v>277</v>
       </c>
       <c r="M14" s="7">
-        <v>109</v>
+        <v>645</v>
       </c>
       <c r="N14" s="7">
-        <v>70507</v>
+        <v>469589</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>278</v>
@@ -4153,10 +4153,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D15" s="7">
-        <v>250052</v>
+        <v>280811</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -4168,10 +4168,10 @@
         <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I15" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -4183,10 +4183,10 @@
         <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="N15" s="7">
-        <v>485385</v>
+        <v>548581</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -4206,10 +4206,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>886</v>
+        <v>173</v>
       </c>
       <c r="D16" s="7">
-        <v>619499</v>
+        <v>121184</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>281</v>
@@ -4221,10 +4221,10 @@
         <v>283</v>
       </c>
       <c r="H16" s="7">
-        <v>867</v>
+        <v>183</v>
       </c>
       <c r="I16" s="7">
-        <v>580287</v>
+        <v>116506</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>284</v>
@@ -4236,10 +4236,10 @@
         <v>286</v>
       </c>
       <c r="M16" s="7">
-        <v>1753</v>
+        <v>356</v>
       </c>
       <c r="N16" s="7">
-        <v>1199786</v>
+        <v>237690</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>287</v>
@@ -4248,7 +4248,7 @@
         <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,10 +4266,10 @@
         <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -4278,13 +4278,13 @@
         <v>7578</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -4293,13 +4293,13 @@
         <v>10921</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,49 +4308,49 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>173</v>
+        <v>886</v>
       </c>
       <c r="D18" s="7">
-        <v>121184</v>
+        <v>619499</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>867</v>
+      </c>
+      <c r="I18" s="7">
+        <v>580287</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="H18" s="7">
-        <v>183</v>
-      </c>
-      <c r="I18" s="7">
-        <v>116506</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>1753</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1199786</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="M18" s="7">
-        <v>356</v>
-      </c>
-      <c r="N18" s="7">
-        <v>237690</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,7 +4420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6F286D-19FB-45BB-B29A-519F0BC74227}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CDEDA1-E6AE-4B76-91B1-2C5704DE0E93}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4538,10 +4538,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7">
-        <v>96155</v>
+        <v>21783</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>306</v>
@@ -4553,10 +4553,10 @@
         <v>308</v>
       </c>
       <c r="H4" s="7">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>85415</v>
+        <v>18388</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>309</v>
@@ -4568,10 +4568,10 @@
         <v>311</v>
       </c>
       <c r="M4" s="7">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="N4" s="7">
-        <v>181569</v>
+        <v>40172</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>312</v>
@@ -4640,10 +4640,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>21783</v>
+        <v>96155</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>316</v>
@@ -4655,10 +4655,10 @@
         <v>318</v>
       </c>
       <c r="H6" s="7">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>18388</v>
+        <v>85415</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>319</v>
@@ -4670,10 +4670,10 @@
         <v>321</v>
       </c>
       <c r="M6" s="7">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="N6" s="7">
-        <v>40172</v>
+        <v>181569</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>322</v>
@@ -4744,10 +4744,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>413</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7">
-        <v>349054</v>
+        <v>33473</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>325</v>
@@ -4759,10 +4759,10 @@
         <v>327</v>
       </c>
       <c r="H8" s="7">
-        <v>393</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>300907</v>
+        <v>29915</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>328</v>
@@ -4774,19 +4774,19 @@
         <v>330</v>
       </c>
       <c r="M8" s="7">
-        <v>806</v>
+        <v>84</v>
       </c>
       <c r="N8" s="7">
-        <v>649962</v>
+        <v>63388</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,7 +4807,7 @@
         <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>129</v>
+        <v>334</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4837,7 +4837,7 @@
         <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>193</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,49 +4846,49 @@
         <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="D10" s="7">
-        <v>53656</v>
+        <v>171582</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="I10" s="7">
-        <v>49901</v>
+        <v>167621</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
-        <v>135</v>
+        <v>467</v>
       </c>
       <c r="N10" s="7">
-        <v>103557</v>
+        <v>339203</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,10 +4897,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D11" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -4912,10 +4912,10 @@
         <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>462</v>
+        <v>280</v>
       </c>
       <c r="I11" s="7">
-        <v>350808</v>
+        <v>197536</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -4927,10 +4927,10 @@
         <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>941</v>
+        <v>551</v>
       </c>
       <c r="N11" s="7">
-        <v>753519</v>
+        <v>402591</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -4950,10 +4950,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7">
-        <v>171582</v>
+        <v>53656</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>344</v>
@@ -4965,10 +4965,10 @@
         <v>346</v>
       </c>
       <c r="H12" s="7">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c r="I12" s="7">
-        <v>167621</v>
+        <v>49901</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>347</v>
@@ -4980,10 +4980,10 @@
         <v>349</v>
       </c>
       <c r="M12" s="7">
-        <v>467</v>
+        <v>135</v>
       </c>
       <c r="N12" s="7">
-        <v>339203</v>
+        <v>103557</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>350</v>
@@ -4992,7 +4992,7 @@
         <v>351</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,7 +5013,7 @@
         <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>353</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>354</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,46 +5052,46 @@
         <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>41</v>
+        <v>413</v>
       </c>
       <c r="D14" s="7">
-        <v>33473</v>
+        <v>349054</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>393</v>
+      </c>
+      <c r="I14" s="7">
+        <v>300907</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H14" s="7">
-        <v>43</v>
-      </c>
-      <c r="I14" s="7">
-        <v>29915</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>806</v>
+      </c>
+      <c r="N14" s="7">
+        <v>649962</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="M14" s="7">
-        <v>84</v>
-      </c>
-      <c r="N14" s="7">
-        <v>63388</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>362</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D15" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -5118,10 +5118,10 @@
         <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>280</v>
+        <v>462</v>
       </c>
       <c r="I15" s="7">
-        <v>197536</v>
+        <v>350808</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -5133,10 +5133,10 @@
         <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>551</v>
+        <v>941</v>
       </c>
       <c r="N15" s="7">
-        <v>402591</v>
+        <v>753519</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -5156,49 +5156,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>831</v>
+        <v>146</v>
       </c>
       <c r="D16" s="7">
-        <v>616792</v>
+        <v>108912</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>363</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H16" s="7">
-        <v>792</v>
+        <v>149</v>
       </c>
       <c r="I16" s="7">
-        <v>553942</v>
+        <v>98205</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M16" s="7">
-        <v>1623</v>
+        <v>295</v>
       </c>
       <c r="N16" s="7">
-        <v>1170734</v>
+        <v>207117</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>370</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,7 +5219,7 @@
         <v>52</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>52</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,46 +5258,46 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>146</v>
+        <v>831</v>
       </c>
       <c r="D18" s="7">
-        <v>108912</v>
+        <v>616792</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>371</v>
+        <v>181</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H18" s="7">
-        <v>149</v>
+        <v>792</v>
       </c>
       <c r="I18" s="7">
-        <v>98205</v>
+        <v>553942</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M18" s="7">
-        <v>295</v>
+        <v>1623</v>
       </c>
       <c r="N18" s="7">
-        <v>207117</v>
+        <v>1170734</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>378</v>
+        <v>279</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>379</v>

--- a/data/trans_orig/IP22-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F77D604-C1C0-48E5-91B3-38C51AFDD267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A425A87-DACB-49FB-893D-E0D5E7550BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{12DD9398-1EA8-4215-BAA9-F885B4788922}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{52234242-21C0-4359-9F5E-D19C70899EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="458">
   <si>
     <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1117 +68,1351 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>Sí acudieron a mi domicilio</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
   </si>
   <si>
     <t>Sí acudí a un centro o servicio</t>
   </si>
   <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>Sí acudieron a mi domicilio</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
     <t>0,61%</t>
   </si>
   <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2015 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
+    <t>17,52%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1423,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1285,39 +1519,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1369,7 +1603,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1480,13 +1714,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1495,6 +1722,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1559,19 +1793,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576D9F1A-BE37-450F-95A5-6339624CED17}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156C22B7-7002-421F-8A7C-3C4EC69C1C2A}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1688,10 +1942,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="D4" s="7">
-        <v>61176</v>
+        <v>88003</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1703,10 +1957,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="I4" s="7">
-        <v>57317</v>
+        <v>73028</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1718,10 +1972,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="N4" s="7">
-        <v>118493</v>
+        <v>161031</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1739,10 +1993,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1268</v>
+        <v>619</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1754,10 +2008,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1278</v>
+        <v>613</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1769,70 +2023,70 @@
         <v>25</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>2546</v>
+        <v>1232</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7">
+        <v>49</v>
+      </c>
+      <c r="D6" s="7">
+        <v>32757</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="7">
-        <v>241</v>
-      </c>
-      <c r="D6" s="7">
-        <v>160718</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>51</v>
+      </c>
+      <c r="I6" s="7">
+        <v>32530</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="7">
-        <v>228</v>
-      </c>
-      <c r="I6" s="7">
-        <v>151601</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>100</v>
+      </c>
+      <c r="N6" s="7">
+        <v>65287</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="7">
-        <v>469</v>
-      </c>
-      <c r="N6" s="7">
-        <v>312318</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,102 +2095,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D7" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I7" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N7" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>73</v>
+        <v>279</v>
       </c>
       <c r="D8" s="7">
-        <v>48577</v>
+        <v>184813</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>301</v>
+      </c>
+      <c r="I8" s="7">
+        <v>201943</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>55</v>
-      </c>
-      <c r="I8" s="7">
-        <v>37017</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>580</v>
+      </c>
+      <c r="N8" s="7">
+        <v>386756</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>128</v>
-      </c>
-      <c r="N8" s="7">
-        <v>85594</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,100 +2199,100 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>647</v>
+        <v>1296</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>665</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>3</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1961</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
-        <v>647</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="D10" s="7">
-        <v>168817</v>
+        <v>67647</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>77</v>
+      </c>
+      <c r="I10" s="7">
+        <v>50597</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="7">
-        <v>249</v>
-      </c>
-      <c r="I10" s="7">
-        <v>168205</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>178</v>
+      </c>
+      <c r="N10" s="7">
+        <v>118244</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="7">
-        <v>505</v>
-      </c>
-      <c r="N10" s="7">
-        <v>337022</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,102 +2301,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I11" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N11" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>181</v>
+      </c>
+      <c r="D12" s="7">
+        <v>120705</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="7">
-        <v>44015</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>159</v>
+      </c>
+      <c r="I12" s="7">
+        <v>106440</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="7">
-        <v>54</v>
-      </c>
-      <c r="I12" s="7">
-        <v>36049</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>340</v>
+      </c>
+      <c r="N12" s="7">
+        <v>227145</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="7">
-        <v>120</v>
-      </c>
-      <c r="N12" s="7">
-        <v>80063</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,19 +2405,19 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>1347</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2175,76 +2429,76 @@
         <v>22</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>1347</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>354</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>236136</v>
+        <v>20810</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="7">
+        <v>32</v>
+      </c>
+      <c r="I14" s="7">
+        <v>21108</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="7">
-        <v>340</v>
-      </c>
-      <c r="I14" s="7">
-        <v>229554</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>63</v>
+      </c>
+      <c r="N14" s="7">
+        <v>41918</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="M14" s="7">
-        <v>694</v>
-      </c>
-      <c r="N14" s="7">
-        <v>465691</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,102 +2507,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D15" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I15" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N15" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="D16" s="7">
-        <v>153767</v>
+        <v>172150</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>247</v>
+      </c>
+      <c r="I16" s="7">
+        <v>167949</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>199</v>
-      </c>
-      <c r="I16" s="7">
-        <v>130383</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>506</v>
+      </c>
+      <c r="N16" s="7">
+        <v>340099</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>429</v>
-      </c>
-      <c r="N16" s="7">
-        <v>284150</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,100 +2611,100 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>3262</v>
+        <v>1347</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1347</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1278</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M17" s="7">
-        <v>7</v>
-      </c>
-      <c r="N17" s="7">
-        <v>4540</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>851</v>
+        <v>49</v>
       </c>
       <c r="D18" s="7">
-        <v>565671</v>
+        <v>32553</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="7">
+        <v>39</v>
+      </c>
+      <c r="I18" s="7">
+        <v>26148</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>88</v>
+      </c>
+      <c r="N18" s="7">
+        <v>58701</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="7">
-        <v>817</v>
-      </c>
-      <c r="I18" s="7">
-        <v>549360</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1668</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1115031</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,55 +2713,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>310</v>
+      </c>
+      <c r="D19" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="7">
+        <v>286</v>
+      </c>
+      <c r="I19" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="7">
+        <v>596</v>
+      </c>
+      <c r="N19" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>851</v>
+      </c>
+      <c r="D20" s="7">
+        <v>565671</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="7">
+        <v>817</v>
+      </c>
+      <c r="I20" s="7">
+        <v>549360</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1668</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1115031</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3262</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1278</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M21" s="7">
+        <v>7</v>
+      </c>
+      <c r="N21" s="7">
+        <v>4540</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="7">
+        <v>230</v>
+      </c>
+      <c r="D22" s="7">
+        <v>153767</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="7">
+        <v>199</v>
+      </c>
+      <c r="I22" s="7">
+        <v>130383</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M22" s="7">
+        <v>429</v>
+      </c>
+      <c r="N22" s="7">
+        <v>284150</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1086</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>722700</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="7">
         <v>1018</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>681021</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="7">
         <v>2104</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1403721</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>39</v>
+      <c r="O23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2520,8 +2986,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AD7A7C-1172-462F-AB02-6AB355521303}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863F6C2A-89C2-44A8-A768-FED8D76ED98B}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2537,7 +3003,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2638,49 +3104,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="D4" s="7">
-        <v>74303</v>
+        <v>104332</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="H4" s="7">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="I4" s="7">
-        <v>72544</v>
+        <v>95741</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
-        <v>214</v>
+        <v>289</v>
       </c>
       <c r="N4" s="7">
-        <v>146847</v>
+        <v>200073</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,100 +3155,100 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>641</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1246</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="7">
-        <v>2064</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2578</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M5" s="7">
-        <v>7</v>
-      </c>
       <c r="N5" s="7">
-        <v>4641</v>
+        <v>1887</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>227</v>
+        <v>58</v>
       </c>
       <c r="D6" s="7">
-        <v>161241</v>
+        <v>39461</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="7">
+        <v>74</v>
+      </c>
+      <c r="I6" s="7">
+        <v>49774</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M6" s="7">
         <v>132</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" s="7">
-        <v>226</v>
-      </c>
-      <c r="I6" s="7">
-        <v>149741</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M6" s="7">
-        <v>453</v>
-      </c>
       <c r="N6" s="7">
-        <v>310982</v>
+        <v>89234</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,102 +3257,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D7" s="7">
-        <v>237608</v>
+        <v>144434</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>338</v>
+        <v>219</v>
       </c>
       <c r="I7" s="7">
-        <v>224863</v>
+        <v>146761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>674</v>
+        <v>424</v>
       </c>
       <c r="N7" s="7">
-        <v>462470</v>
+        <v>291195</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="D8" s="7">
-        <v>65627</v>
+        <v>171946</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="I8" s="7">
-        <v>60258</v>
+        <v>160311</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="M8" s="7">
-        <v>174</v>
+        <v>473</v>
       </c>
       <c r="N8" s="7">
-        <v>125885</v>
+        <v>332256</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,100 +3361,100 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>2788</v>
+        <v>3513</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>1543</v>
+        <v>2153</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N9" s="7">
-        <v>4331</v>
+        <v>5666</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="D10" s="7">
-        <v>172834</v>
+        <v>92791</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="I10" s="7">
-        <v>167671</v>
+        <v>73141</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
-        <v>475</v>
+        <v>231</v>
       </c>
       <c r="N10" s="7">
-        <v>340505</v>
+        <v>165932</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,102 +3463,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="D11" s="7">
-        <v>241249</v>
+        <v>268249</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="I11" s="7">
-        <v>229472</v>
+        <v>235605</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>655</v>
+        <v>712</v>
       </c>
       <c r="N11" s="7">
-        <v>470721</v>
+        <v>503854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="D12" s="7">
-        <v>60482</v>
+        <v>130989</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="H12" s="7">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>30895</v>
+        <v>134414</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="M12" s="7">
-        <v>133</v>
+        <v>381</v>
       </c>
       <c r="N12" s="7">
-        <v>91377</v>
+        <v>265403</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,100 +3567,100 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1554</v>
+        <v>697</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1554</v>
+        <v>1419</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>310</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7">
-        <v>209458</v>
+        <v>26885</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
-        <v>320</v>
+        <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>225516</v>
+        <v>21908</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
-        <v>630</v>
+        <v>68</v>
       </c>
       <c r="N14" s="7">
-        <v>434975</v>
+        <v>48793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,102 +3669,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>400</v>
+        <v>228</v>
       </c>
       <c r="D15" s="7">
-        <v>271494</v>
+        <v>158571</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>256411</v>
+        <v>157043</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
-        <v>765</v>
+        <v>451</v>
       </c>
       <c r="N15" s="7">
-        <v>527906</v>
+        <v>315614</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>284</v>
+        <v>200</v>
       </c>
       <c r="D16" s="7">
-        <v>200412</v>
+        <v>136268</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="I16" s="7">
-        <v>163697</v>
+        <v>152463</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
-        <v>521</v>
+        <v>415</v>
       </c>
       <c r="N16" s="7">
-        <v>364109</v>
+        <v>288731</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,100 +3773,100 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>6405</v>
+        <v>1554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>4121</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>193</v>
+        <v>22</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>10526</v>
+        <v>1554</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>777</v>
+        <v>62</v>
       </c>
       <c r="D18" s="7">
-        <v>543535</v>
+        <v>41276</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H18" s="7">
-        <v>781</v>
+        <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>542928</v>
+        <v>18874</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M18" s="7">
-        <v>1558</v>
+        <v>90</v>
       </c>
       <c r="N18" s="7">
-        <v>1086462</v>
+        <v>60150</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,55 +3875,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>264</v>
+      </c>
+      <c r="D19" s="7">
+        <v>179098</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="7">
+        <v>243</v>
+      </c>
+      <c r="I19" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="7">
+        <v>507</v>
+      </c>
+      <c r="N19" s="7">
+        <v>350435</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>777</v>
+      </c>
+      <c r="D20" s="7">
+        <v>543535</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H20" s="7">
+        <v>781</v>
+      </c>
+      <c r="I20" s="7">
+        <v>542928</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1558</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1086462</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7">
+        <v>6405</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" s="7">
+        <v>6</v>
+      </c>
+      <c r="I21" s="7">
+        <v>4121</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M21" s="7">
+        <v>15</v>
+      </c>
+      <c r="N21" s="7">
+        <v>10526</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="7">
+        <v>284</v>
+      </c>
+      <c r="D22" s="7">
+        <v>200412</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H22" s="7">
+        <v>237</v>
+      </c>
+      <c r="I22" s="7">
+        <v>163697</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M22" s="7">
+        <v>521</v>
+      </c>
+      <c r="N22" s="7">
+        <v>364109</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1070</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>750352</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="7">
         <v>1024</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>710746</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="7">
         <v>2094</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1461097</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>39</v>
+      <c r="O23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3470,8 +4148,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1413C78-B1E9-4F6F-BEB6-50C1D6BDD686}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B221D784-D77F-4836-9184-1452AAE0B5F4}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3487,7 +4165,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3588,49 +4266,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="D4" s="7">
-        <v>44381</v>
+        <v>100148</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="H4" s="7">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="I4" s="7">
-        <v>46632</v>
+        <v>102991</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
-        <v>141</v>
+        <v>317</v>
       </c>
       <c r="N4" s="7">
-        <v>91014</v>
+        <v>203139</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,94 +4323,94 @@
         <v>665</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2072</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M5" s="7">
         <v>4</v>
       </c>
-      <c r="I5" s="7">
-        <v>2800</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
       <c r="N5" s="7">
-        <v>3464</v>
+        <v>2737</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>254</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7">
-        <v>168117</v>
+        <v>23351</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="H6" s="7">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7">
-        <v>151836</v>
+        <v>26591</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="M6" s="7">
-        <v>501</v>
+        <v>77</v>
       </c>
       <c r="N6" s="7">
-        <v>319953</v>
+        <v>49942</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,102 +4419,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I7" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N7" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>47</v>
+        <v>317</v>
       </c>
       <c r="D8" s="7">
-        <v>31925</v>
+        <v>215852</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="H8" s="7">
-        <v>62</v>
+        <v>259</v>
       </c>
       <c r="I8" s="7">
-        <v>38582</v>
+        <v>165250</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="M8" s="7">
-        <v>109</v>
+        <v>576</v>
       </c>
       <c r="N8" s="7">
-        <v>70507</v>
+        <v>381102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,100 +4523,100 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>1914</v>
+        <v>626</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="H9" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>2720</v>
+        <v>3448</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="M9" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>4634</v>
+        <v>4074</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
-        <v>313</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>216213</v>
+        <v>41583</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="H10" s="7">
+        <v>68</v>
+      </c>
+      <c r="I10" s="7">
+        <v>41819</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M10" s="7">
+        <v>130</v>
+      </c>
+      <c r="N10" s="7">
+        <v>83402</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="I10" s="7">
-        <v>194031</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M10" s="7">
-        <v>607</v>
-      </c>
-      <c r="N10" s="7">
-        <v>410244</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,102 +4625,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D11" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I11" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N11" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D12" s="7">
-        <v>44878</v>
+        <v>157609</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="H12" s="7">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="I12" s="7">
-        <v>31292</v>
+        <v>158295</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="M12" s="7">
-        <v>106</v>
+        <v>446</v>
       </c>
       <c r="N12" s="7">
-        <v>76169</v>
+        <v>315904</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,100 +4729,100 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>764</v>
+        <v>1288</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>306</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>2058</v>
+        <v>1518</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>308</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>2822</v>
+        <v>2806</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
+        <v>41</v>
+      </c>
+      <c r="D14" s="7">
+        <v>29675</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H14" s="7">
+        <v>44</v>
+      </c>
+      <c r="I14" s="7">
+        <v>29086</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M14" s="7">
+        <v>85</v>
+      </c>
+      <c r="N14" s="7">
+        <v>58761</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="D14" s="7">
-        <v>235169</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H14" s="7">
-        <v>326</v>
-      </c>
-      <c r="I14" s="7">
-        <v>234420</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="M14" s="7">
-        <v>645</v>
-      </c>
-      <c r="N14" s="7">
-        <v>469589</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,102 +4831,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>380</v>
+        <v>263</v>
       </c>
       <c r="D15" s="7">
-        <v>280811</v>
+        <v>188572</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I15" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
-        <v>755</v>
+        <v>535</v>
       </c>
       <c r="N15" s="7">
-        <v>548581</v>
+        <v>377471</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="D16" s="7">
-        <v>121184</v>
+        <v>145890</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="H16" s="7">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="I16" s="7">
-        <v>116506</v>
+        <v>153751</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="N16" s="7">
-        <v>237690</v>
+        <v>299641</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>44</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,100 +4935,100 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>3343</v>
+        <v>764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>7578</v>
+        <v>540</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="M17" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>10921</v>
+        <v>1304</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>886</v>
+        <v>36</v>
       </c>
       <c r="D18" s="7">
-        <v>619499</v>
+        <v>26575</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="H18" s="7">
-        <v>867</v>
+        <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>580287</v>
+        <v>19010</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="M18" s="7">
-        <v>1753</v>
+        <v>64</v>
       </c>
       <c r="N18" s="7">
-        <v>1199786</v>
+        <v>45585</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,55 +5037,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>234</v>
+      </c>
+      <c r="D19" s="7">
+        <v>173230</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="7">
+        <v>246</v>
+      </c>
+      <c r="I19" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="7">
+        <v>480</v>
+      </c>
+      <c r="N19" s="7">
+        <v>346530</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>886</v>
+      </c>
+      <c r="D20" s="7">
+        <v>619499</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H20" s="7">
+        <v>867</v>
+      </c>
+      <c r="I20" s="7">
+        <v>580287</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1753</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1199786</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3343</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H21" s="7">
+        <v>11</v>
+      </c>
+      <c r="I21" s="7">
+        <v>7578</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M21" s="7">
+        <v>16</v>
+      </c>
+      <c r="N21" s="7">
+        <v>10921</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="7">
+        <v>173</v>
+      </c>
+      <c r="D22" s="7">
+        <v>121184</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H22" s="7">
+        <v>183</v>
+      </c>
+      <c r="I22" s="7">
+        <v>116506</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="M22" s="7">
+        <v>356</v>
+      </c>
+      <c r="N22" s="7">
+        <v>237690</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1064</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>744026</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="7">
         <v>1061</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>704371</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="7">
         <v>2125</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1448397</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>39</v>
+      <c r="O23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4420,8 +5310,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CDEDA1-E6AE-4B76-91B1-2C5704DE0E93}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FE1788-D9AD-4DE5-87BE-BAC1F0E733FF}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4437,7 +5327,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>363</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4538,49 +5428,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="D4" s="7">
-        <v>21783</v>
+        <v>46330</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="H4" s="7">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="I4" s="7">
-        <v>18388</v>
+        <v>42595</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>309</v>
+        <v>367</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="M4" s="7">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="N4" s="7">
-        <v>40172</v>
+        <v>88924</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,10 +5488,10 @@
         <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4613,10 +5503,10 @@
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4628,61 +5518,61 @@
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12173</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H6" s="7">
         <v>29</v>
       </c>
-      <c r="C6" s="7">
-        <v>188</v>
-      </c>
-      <c r="D6" s="7">
-        <v>96155</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
       <c r="I6" s="7">
-        <v>85415</v>
+        <v>14774</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>319</v>
+        <v>377</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>320</v>
+        <v>378</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>321</v>
+        <v>379</v>
       </c>
       <c r="M6" s="7">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="N6" s="7">
-        <v>181569</v>
+        <v>26947</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>322</v>
+        <v>380</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>323</v>
+        <v>381</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,102 +5581,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D7" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I7" s="7">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>221741</v>
+        <v>115871</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="D8" s="7">
-        <v>33473</v>
+        <v>146309</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="H8" s="7">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="I8" s="7">
-        <v>29915</v>
+        <v>137245</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="M8" s="7">
-        <v>84</v>
+        <v>457</v>
       </c>
       <c r="N8" s="7">
-        <v>63388</v>
+        <v>283554</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,10 +5694,10 @@
         <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>333</v>
+        <v>392</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4819,10 +5709,10 @@
         <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4834,61 +5724,61 @@
         <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>171582</v>
+        <v>28990</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="H10" s="7">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>167621</v>
+        <v>21520</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="M10" s="7">
-        <v>467</v>
+        <v>77</v>
       </c>
       <c r="N10" s="7">
-        <v>339203</v>
+        <v>50509</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>321</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,102 +5787,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D11" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="I11" s="7">
-        <v>197536</v>
+        <v>158765</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>402591</v>
+        <v>334063</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="D12" s="7">
-        <v>53656</v>
+        <v>170472</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="H12" s="7">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="I12" s="7">
-        <v>49901</v>
+        <v>150213</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="M12" s="7">
-        <v>135</v>
+        <v>401</v>
       </c>
       <c r="N12" s="7">
-        <v>103557</v>
+        <v>320685</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>351</v>
+        <v>409</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,10 +5900,10 @@
         <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>353</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5025,10 +5915,10 @@
         <v>22</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>411</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5040,61 +5930,61 @@
         <v>22</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
+        <v>38</v>
+      </c>
+      <c r="D14" s="7">
+        <v>32006</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="D14" s="7">
-        <v>349054</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="H14" s="7">
-        <v>393</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>300907</v>
+        <v>25168</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>357</v>
+        <v>415</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="M14" s="7">
-        <v>806</v>
+        <v>74</v>
       </c>
       <c r="N14" s="7">
-        <v>649962</v>
+        <v>57174</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,102 +5993,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D15" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
-        <v>462</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>350808</v>
+        <v>175381</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
-        <v>941</v>
+        <v>475</v>
       </c>
       <c r="N15" s="7">
-        <v>753519</v>
+        <v>377859</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>146</v>
+        <v>299</v>
       </c>
       <c r="D16" s="7">
-        <v>108912</v>
+        <v>253681</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>363</v>
+        <v>421</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>365</v>
+        <v>423</v>
       </c>
       <c r="H16" s="7">
-        <v>149</v>
+        <v>292</v>
       </c>
       <c r="I16" s="7">
-        <v>98205</v>
+        <v>223890</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>366</v>
+        <v>424</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="M16" s="7">
-        <v>295</v>
+        <v>591</v>
       </c>
       <c r="N16" s="7">
-        <v>207117</v>
+        <v>477571</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,10 +6106,10 @@
         <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>430</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5231,10 +6121,10 @@
         <v>22</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>430</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5246,61 +6136,61 @@
         <v>22</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>372</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>831</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7">
-        <v>616792</v>
+        <v>35743</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>181</v>
+        <v>432</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>373</v>
+        <v>433</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>374</v>
+        <v>434</v>
       </c>
       <c r="H18" s="7">
-        <v>792</v>
+        <v>50</v>
       </c>
       <c r="I18" s="7">
-        <v>553942</v>
+        <v>36743</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>376</v>
+        <v>436</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>377</v>
+        <v>437</v>
       </c>
       <c r="M18" s="7">
-        <v>1623</v>
+        <v>93</v>
       </c>
       <c r="N18" s="7">
-        <v>1170734</v>
+        <v>72486</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>378</v>
+        <v>438</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>439</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,55 +6199,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>342</v>
+      </c>
+      <c r="D19" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="7">
+        <v>342</v>
+      </c>
+      <c r="I19" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="7">
+        <v>684</v>
+      </c>
+      <c r="N19" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>831</v>
+      </c>
+      <c r="D20" s="7">
+        <v>616792</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H20" s="7">
+        <v>792</v>
+      </c>
+      <c r="I20" s="7">
+        <v>553942</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1623</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1170734</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="7">
+        <v>146</v>
+      </c>
+      <c r="D22" s="7">
+        <v>108912</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H22" s="7">
+        <v>149</v>
+      </c>
+      <c r="I22" s="7">
+        <v>98205</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="M22" s="7">
+        <v>295</v>
+      </c>
+      <c r="N22" s="7">
+        <v>207117</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>977</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>725704</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="7">
         <v>941</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>652147</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="7">
         <v>1918</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1377851</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>39</v>
+      <c r="O23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP22-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A425A87-DACB-49FB-893D-E0D5E7550BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DDFB14A-21E3-4F19-BE48-227E58AD0CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{52234242-21C0-4359-9F5E-D19C70899EEC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{790908FE-068E-461F-A540-1C7E0DFA49F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="456">
   <si>
     <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>72,5%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
   </si>
   <si>
     <t>68,78%</t>
   </si>
   <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
   </si>
   <si>
     <t>70,77%</t>
   </si>
   <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
   </si>
   <si>
     <t>Sí acudieron a mi domicilio</t>
@@ -110,19 +110,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,56%</t>
+    <t>3,58%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,26%</t>
+    <t>3,13%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>1,9%</t>
+    <t>1,91%</t>
   </si>
   <si>
     <t>Sí acudí a un centro o servicio</t>
@@ -131,28 +131,28 @@
     <t>26,99%</t>
   </si>
   <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
   </si>
   <si>
     <t>30,64%</t>
   </si>
   <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
   </si>
   <si>
     <t>28,69%</t>
   </si>
   <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,1171 +164,1168 @@
     <t>72,83%</t>
   </si>
   <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
   </si>
   <si>
     <t>79,75%</t>
   </si>
   <si>
-    <t>75,65%</t>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>83,45%</t>
   </si>
   <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
   </si>
   <si>
     <t>26,33%</t>
   </si>
   <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>87,75%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>12,25%</t>
   </si>
   <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
   <si>
     <t>85,9%</t>
   </si>
   <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
   </si>
   <si>
     <t>86,82%</t>
   </si>
   <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
   </si>
   <si>
     <t>0,56%</t>
@@ -1340,52 +1337,46 @@
     <t>12,35%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>84,97%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
+    <t>86,54%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -1394,25 +1385,28 @@
     <t>15,01%</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>17,52%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156C22B7-7002-421F-8A7C-3C4EC69C1C2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AC42BD-BF19-4A71-9571-07DAFAB8B5A8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2277,7 +2271,7 @@
         <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
@@ -2286,13 +2280,13 @@
         <v>118244</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,7 +2342,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2360,13 +2354,13 @@
         <v>120705</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>159</v>
@@ -2375,7 +2369,7 @@
         <v>106440</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>68</v>
@@ -2829,7 +2823,7 @@
         <v>120</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2986,7 +2980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863F6C2A-89C2-44A8-A768-FED8D76ED98B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E567FC67-57CF-4E16-8FC6-D9FF5472A749}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3194,10 +3188,10 @@
         <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3206,13 @@
         <v>39461</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H6" s="7">
         <v>74</v>
@@ -3227,13 +3221,13 @@
         <v>49774</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M6" s="7">
         <v>132</v>
@@ -3245,10 +3239,10 @@
         <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3310,13 @@
         <v>171946</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H8" s="7">
         <v>232</v>
@@ -3331,13 +3325,13 @@
         <v>160311</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M8" s="7">
         <v>473</v>
@@ -3346,13 +3340,13 @@
         <v>332256</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3361,13 @@
         <v>3513</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -3382,13 +3376,13 @@
         <v>2153</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -3397,13 +3391,13 @@
         <v>5666</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3412,13 @@
         <v>92791</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>104</v>
@@ -3433,13 +3427,13 @@
         <v>73141</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>231</v>
@@ -3448,13 +3442,13 @@
         <v>165932</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,7 +3504,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3522,13 +3516,13 @@
         <v>130989</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H12" s="7">
         <v>191</v>
@@ -3555,10 +3549,10 @@
         <v>190</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,7 +3573,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3588,13 +3582,13 @@
         <v>722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3609,7 +3603,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3618,13 @@
         <v>26885</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -3639,13 +3633,13 @@
         <v>21908</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -3654,13 +3648,13 @@
         <v>48793</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,7 +3809,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,13 +3824,13 @@
         <v>41276</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -3845,13 +3839,13 @@
         <v>18874</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -3860,13 +3854,13 @@
         <v>60150</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3928,13 @@
         <v>543535</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>781</v>
@@ -3949,13 +3943,13 @@
         <v>542928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>1558</v>
@@ -3964,13 +3958,13 @@
         <v>1086462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,10 +3982,10 @@
         <v>148</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -4003,10 +3997,10 @@
         <v>24</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -4015,10 +4009,10 @@
         <v>10526</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>240</v>
@@ -4148,7 +4142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B221D784-D77F-4836-9184-1452AAE0B5F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F458F7-9CC6-4BBD-A639-8B61E3B6D7DE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4305,10 +4299,10 @@
         <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,7 +4323,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4338,13 +4332,13 @@
         <v>2072</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4353,13 +4347,13 @@
         <v>2737</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,13 +4368,13 @@
         <v>23351</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H6" s="7">
         <v>43</v>
@@ -4389,13 +4383,13 @@
         <v>26591</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M6" s="7">
         <v>77</v>
@@ -4404,13 +4398,13 @@
         <v>49942</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,7 +4523,7 @@
         <v>626</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>22</v>
@@ -4544,13 +4538,13 @@
         <v>3448</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -4562,7 +4556,7 @@
         <v>213</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>170</v>
+        <v>286</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>287</v>
@@ -4583,10 +4577,10 @@
         <v>288</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -4595,13 +4589,13 @@
         <v>41819</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M10" s="7">
         <v>130</v>
@@ -4610,13 +4604,13 @@
         <v>83402</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,7 +4666,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4684,13 +4678,13 @@
         <v>157609</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H12" s="7">
         <v>226</v>
@@ -4699,13 +4693,13 @@
         <v>158295</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M12" s="7">
         <v>446</v>
@@ -4714,13 +4708,13 @@
         <v>315904</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4729,13 @@
         <v>1288</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4750,13 +4744,13 @@
         <v>1518</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>308</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4768,10 +4762,10 @@
         <v>309</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>310</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4780,13 @@
         <v>29675</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -4801,13 +4795,13 @@
         <v>29086</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -4816,13 +4810,13 @@
         <v>58761</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4884,13 @@
         <v>145890</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H16" s="7">
         <v>217</v>
@@ -4905,13 +4899,13 @@
         <v>153751</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M16" s="7">
         <v>414</v>
@@ -4920,13 +4914,13 @@
         <v>299641</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,7 +4941,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4956,13 +4950,13 @@
         <v>540</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4971,13 +4965,13 @@
         <v>1304</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4986,13 @@
         <v>26575</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -5007,13 +5001,13 @@
         <v>19010</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -5022,13 +5016,13 @@
         <v>45585</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5090,13 @@
         <v>619499</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H20" s="7">
         <v>867</v>
@@ -5111,13 +5105,13 @@
         <v>580287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>191</v>
+        <v>343</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M20" s="7">
         <v>1753</v>
@@ -5126,13 +5120,13 @@
         <v>1199786</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,10 +5144,10 @@
         <v>119</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -5162,13 +5156,13 @@
         <v>7578</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -5180,10 +5174,10 @@
         <v>353</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>354</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5192,13 @@
         <v>121184</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -5213,13 +5207,13 @@
         <v>116506</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M22" s="7">
         <v>356</v>
@@ -5228,13 +5222,13 @@
         <v>237690</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,7 +5304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FE1788-D9AD-4DE5-87BE-BAC1F0E733FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4B7D25-05CA-4430-93C0-0F08931074E2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5327,7 +5321,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5434,13 +5428,13 @@
         <v>46330</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H4" s="7">
         <v>80</v>
@@ -5449,13 +5443,13 @@
         <v>42595</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M4" s="7">
         <v>174</v>
@@ -5464,13 +5458,13 @@
         <v>88924</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,7 +5485,7 @@
         <v>73</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5506,7 +5500,7 @@
         <v>73</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>373</v>
+        <v>150</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5536,13 +5530,13 @@
         <v>12173</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -5551,13 +5545,13 @@
         <v>14774</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -5566,13 +5560,13 @@
         <v>26947</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +5634,13 @@
         <v>146309</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>385</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
         <v>224</v>
@@ -5697,7 +5691,7 @@
         <v>73</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>392</v>
+        <v>125</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5727,7 +5721,7 @@
         <v>73</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5736,13 @@
         <v>28990</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -5757,13 +5751,13 @@
         <v>21520</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -5772,13 +5766,13 @@
         <v>50509</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,7 +5828,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5846,13 +5840,13 @@
         <v>170472</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H12" s="7">
         <v>196</v>
@@ -5861,13 +5855,13 @@
         <v>150213</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M12" s="7">
         <v>401</v>
@@ -5876,13 +5870,13 @@
         <v>320685</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,7 +5912,7 @@
         <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5933,7 +5927,7 @@
         <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,13 +6046,13 @@
         <v>253681</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H16" s="7">
         <v>292</v>
@@ -6067,13 +6061,13 @@
         <v>223890</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M16" s="7">
         <v>591</v>
@@ -6082,13 +6076,13 @@
         <v>477571</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,7 +6103,7 @@
         <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6124,7 +6118,7 @@
         <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6139,7 +6133,7 @@
         <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6148,13 @@
         <v>35743</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
@@ -6169,13 +6163,13 @@
         <v>36743</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
@@ -6184,13 +6178,13 @@
         <v>72486</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,10 +6255,10 @@
         <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>442</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>792</v>
@@ -6273,13 +6267,13 @@
         <v>553942</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="M20" s="7">
         <v>1623</v>
@@ -6288,13 +6282,13 @@
         <v>1170734</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>447</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,7 +6309,7 @@
         <v>73</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6330,7 +6324,7 @@
         <v>73</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6345,7 +6339,7 @@
         <v>73</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,13 +6354,13 @@
         <v>108912</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H22" s="7">
         <v>149</v>
@@ -6375,13 +6369,13 @@
         <v>98205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>289</v>
+        <v>451</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M22" s="7">
         <v>295</v>
@@ -6390,13 +6384,13 @@
         <v>207117</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP22-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DDFB14A-21E3-4F19-BE48-227E58AD0CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6062B5F2-4DD0-4509-BACA-6B33FF9E2EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{790908FE-068E-461F-A540-1C7E0DFA49F0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{484644C4-F57D-4FAF-B743-3BCE9A61FD54}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="457">
   <si>
     <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,49 +74,49 @@
     <t>No</t>
   </si>
   <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
     <t>72,5%</t>
   </si>
   <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
   </si>
   <si>
     <t>70,77%</t>
   </si>
   <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>Sí acudieron a mi domicilio</t>
   </si>
   <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>2,29%</t>
   </si>
   <si>
     <t>0,54%</t>
@@ -128,31 +128,31 @@
     <t>Sí acudí a un centro o servicio</t>
   </si>
   <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
     <t>26,99%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
   </si>
   <si>
     <t>28,69%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,1114 +161,1120 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
     <t>72,83%</t>
   </si>
   <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>76,29%</t>
   </si>
   <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>78,65%</t>
   </si>
   <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2016 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -1277,136 +1283,133 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AC42BD-BF19-4A71-9571-07DAFAB8B5A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DDF6B5-CB28-4E04-B289-2933FCF691D0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1936,10 +1939,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D4" s="7">
-        <v>88003</v>
+        <v>73028</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1951,10 +1954,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="I4" s="7">
-        <v>73028</v>
+        <v>88003</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1990,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2005,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2038,10 +2041,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="7">
-        <v>32757</v>
+        <v>32530</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>29</v>
@@ -2053,10 +2056,10 @@
         <v>31</v>
       </c>
       <c r="H6" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I6" s="7">
-        <v>32530</v>
+        <v>32757</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>32</v>
@@ -2089,25 +2092,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>162</v>
+      </c>
+      <c r="D7" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7">
         <v>182</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>121380</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="7">
-        <v>162</v>
-      </c>
-      <c r="I7" s="7">
-        <v>106171</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>38</v>
@@ -2142,10 +2145,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="D8" s="7">
-        <v>184813</v>
+        <v>201943</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -2157,10 +2160,10 @@
         <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="I8" s="7">
-        <v>201943</v>
+        <v>184813</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -2193,28 +2196,28 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>1296</v>
+        <v>665</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>665</v>
+        <v>1296</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>22</v>
@@ -2244,10 +2247,10 @@
         <v>28</v>
       </c>
       <c r="C10" s="7">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D10" s="7">
-        <v>67647</v>
+        <v>50597</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>55</v>
@@ -2259,10 +2262,10 @@
         <v>57</v>
       </c>
       <c r="H10" s="7">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="I10" s="7">
-        <v>50597</v>
+        <v>67647</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>58</v>
@@ -2271,7 +2274,7 @@
         <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
@@ -2280,13 +2283,13 @@
         <v>118244</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,25 +2298,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>379</v>
+      </c>
+      <c r="D11" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7">
         <v>382</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>253756</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="7">
-        <v>379</v>
-      </c>
-      <c r="I11" s="7">
-        <v>253205</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>38</v>
@@ -2342,40 +2345,40 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>159</v>
+      </c>
+      <c r="D12" s="7">
+        <v>106440</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="7">
         <v>181</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>120705</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="7">
-        <v>159</v>
-      </c>
-      <c r="I12" s="7">
-        <v>106440</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>340</v>
@@ -2384,13 +2387,13 @@
         <v>227145</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,10 +2411,10 @@
         <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2423,10 +2426,10 @@
         <v>22</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2438,10 +2441,10 @@
         <v>22</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,34 +2453,34 @@
         <v>28</v>
       </c>
       <c r="C14" s="7">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7">
+        <v>21108</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="7">
         <v>31</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>20810</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="7">
-        <v>32</v>
-      </c>
-      <c r="I14" s="7">
-        <v>21108</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -2486,13 +2489,13 @@
         <v>41918</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,25 +2504,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>191</v>
+      </c>
+      <c r="D15" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="7">
         <v>212</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141515</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="7">
-        <v>191</v>
-      </c>
-      <c r="I15" s="7">
-        <v>127548</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -2548,40 +2551,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>247</v>
+      </c>
+      <c r="D16" s="7">
+        <v>167949</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
         <v>259</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>172150</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="7">
-        <v>247</v>
-      </c>
-      <c r="I16" s="7">
-        <v>167949</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>506</v>
@@ -2590,13 +2593,13 @@
         <v>340099</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,34 +2608,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>1347</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1347</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2656,10 +2659,10 @@
         <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7">
-        <v>32553</v>
+        <v>26148</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>101</v>
@@ -2671,10 +2674,10 @@
         <v>103</v>
       </c>
       <c r="H18" s="7">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I18" s="7">
-        <v>26148</v>
+        <v>32553</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>104</v>
@@ -2707,25 +2710,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>286</v>
+      </c>
+      <c r="D19" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="7">
         <v>310</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>206049</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="7">
-        <v>286</v>
-      </c>
-      <c r="I19" s="7">
-        <v>194097</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -2760,10 +2763,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>851</v>
+        <v>817</v>
       </c>
       <c r="D20" s="7">
-        <v>565671</v>
+        <v>549360</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>110</v>
@@ -2775,10 +2778,10 @@
         <v>112</v>
       </c>
       <c r="H20" s="7">
-        <v>817</v>
+        <v>851</v>
       </c>
       <c r="I20" s="7">
-        <v>549360</v>
+        <v>565671</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>113</v>
@@ -2811,34 +2814,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>3262</v>
+        <v>1278</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>119</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="H21" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I21" s="7">
-        <v>1278</v>
+        <v>3262</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>121</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2847,13 +2850,13 @@
         <v>4540</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2865,13 @@
         <v>28</v>
       </c>
       <c r="C22" s="7">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="D22" s="7">
-        <v>153767</v>
+        <v>130383</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>127</v>
@@ -2877,10 +2880,10 @@
         <v>128</v>
       </c>
       <c r="H22" s="7">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="I22" s="7">
-        <v>130383</v>
+        <v>153767</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>129</v>
@@ -2913,25 +2916,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D23" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="7">
         <v>1086</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>722700</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I23" s="7">
-        <v>681021</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>38</v>
@@ -2980,7 +2983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E567FC67-57CF-4E16-8FC6-D9FF5472A749}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98228371-D16B-40CE-8475-0F7A33BF98DF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3098,10 +3101,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D4" s="7">
-        <v>104332</v>
+        <v>95741</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>137</v>
@@ -3113,10 +3116,10 @@
         <v>139</v>
       </c>
       <c r="H4" s="7">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I4" s="7">
-        <v>95741</v>
+        <v>104332</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>140</v>
@@ -3149,10 +3152,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>1246</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>146</v>
@@ -3164,10 +3167,10 @@
         <v>147</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1246</v>
+        <v>641</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>148</v>
@@ -3185,10 +3188,10 @@
         <v>1887</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>150</v>
@@ -3200,10 +3203,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D6" s="7">
-        <v>39461</v>
+        <v>49774</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>151</v>
@@ -3215,10 +3218,10 @@
         <v>153</v>
       </c>
       <c r="H6" s="7">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I6" s="7">
-        <v>49774</v>
+        <v>39461</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>154</v>
@@ -3236,7 +3239,7 @@
         <v>89234</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>157</v>
@@ -3251,25 +3254,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>219</v>
+      </c>
+      <c r="D7" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7">
         <v>205</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>144434</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="7">
-        <v>219</v>
-      </c>
-      <c r="I7" s="7">
-        <v>146761</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>38</v>
@@ -3304,10 +3307,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D8" s="7">
-        <v>171946</v>
+        <v>160311</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>159</v>
@@ -3316,22 +3319,22 @@
         <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="7">
+        <v>241</v>
+      </c>
+      <c r="I8" s="7">
+        <v>171946</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H8" s="7">
-        <v>232</v>
-      </c>
-      <c r="I8" s="7">
-        <v>160311</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>473</v>
@@ -3340,13 +3343,13 @@
         <v>332256</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3358,13 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>3513</v>
+        <v>2153</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>168</v>
@@ -3370,19 +3373,19 @@
         <v>169</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>2153</v>
+        <v>3513</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>170</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -3391,13 +3394,13 @@
         <v>5666</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,28 +3409,28 @@
         <v>28</v>
       </c>
       <c r="C10" s="7">
+        <v>104</v>
+      </c>
+      <c r="D10" s="7">
+        <v>73141</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="7">
         <v>127</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>92791</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="H10" s="7">
-        <v>104</v>
-      </c>
-      <c r="I10" s="7">
-        <v>73141</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>179</v>
@@ -3457,25 +3460,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>339</v>
+      </c>
+      <c r="D11" s="7">
+        <v>235605</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7">
         <v>373</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>268249</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="7">
-        <v>339</v>
-      </c>
-      <c r="I11" s="7">
-        <v>235605</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>38</v>
@@ -3504,16 +3507,16 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D12" s="7">
-        <v>130989</v>
+        <v>134414</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>184</v>
@@ -3525,10 +3528,10 @@
         <v>186</v>
       </c>
       <c r="H12" s="7">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I12" s="7">
-        <v>134414</v>
+        <v>130989</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>187</v>
@@ -3549,10 +3552,10 @@
         <v>190</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,31 +3567,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>722</v>
+        <v>697</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3597,13 +3600,13 @@
         <v>1419</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,34 +3615,34 @@
         <v>28</v>
       </c>
       <c r="C14" s="7">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7">
+        <v>21908</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="7">
         <v>37</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>26885</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="7">
-        <v>31</v>
-      </c>
-      <c r="I14" s="7">
-        <v>21908</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -3648,13 +3651,13 @@
         <v>48793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,25 +3666,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>223</v>
+      </c>
+      <c r="D15" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="7">
         <v>228</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>158571</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="7">
-        <v>223</v>
-      </c>
-      <c r="I15" s="7">
-        <v>157043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -3710,40 +3713,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>215</v>
+      </c>
+      <c r="D16" s="7">
+        <v>152463</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H16" s="7">
         <v>200</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>136268</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H16" s="7">
-        <v>215</v>
-      </c>
-      <c r="I16" s="7">
-        <v>152463</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>415</v>
@@ -3752,13 +3755,13 @@
         <v>288731</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,34 +3770,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>1554</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>214</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1554</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3803,13 +3806,13 @@
         <v>1554</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,34 +3821,34 @@
         <v>28</v>
       </c>
       <c r="C18" s="7">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7">
+        <v>18874</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" s="7">
         <v>62</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>41276</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H18" s="7">
-        <v>28</v>
-      </c>
-      <c r="I18" s="7">
-        <v>18874</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -3854,13 +3857,13 @@
         <v>60150</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,25 +3872,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>243</v>
+      </c>
+      <c r="D19" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="7">
         <v>264</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>179098</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="7">
-        <v>243</v>
-      </c>
-      <c r="I19" s="7">
-        <v>171337</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -3922,34 +3925,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>781</v>
+      </c>
+      <c r="D20" s="7">
+        <v>542928</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H20" s="7">
         <v>777</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>543535</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="7">
-        <v>781</v>
-      </c>
-      <c r="I20" s="7">
-        <v>542928</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M20" s="7">
         <v>1558</v>
@@ -3958,13 +3961,13 @@
         <v>1086462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,34 +3976,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7">
+        <v>4121</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H21" s="7">
         <v>9</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>6405</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H21" s="7">
-        <v>6</v>
-      </c>
-      <c r="I21" s="7">
-        <v>4121</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -4012,10 +4015,10 @@
         <v>239</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,34 +4027,34 @@
         <v>28</v>
       </c>
       <c r="C22" s="7">
+        <v>237</v>
+      </c>
+      <c r="D22" s="7">
+        <v>163697</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H22" s="7">
         <v>284</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>200412</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H22" s="7">
-        <v>237</v>
-      </c>
-      <c r="I22" s="7">
-        <v>163697</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
         <v>521</v>
@@ -4060,13 +4063,13 @@
         <v>364109</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,25 +4078,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1024</v>
+      </c>
+      <c r="D23" s="7">
+        <v>710746</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="7">
         <v>1070</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>750352</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I23" s="7">
-        <v>710746</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>38</v>
@@ -4142,7 +4145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F458F7-9CC6-4BBD-A639-8B61E3B6D7DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8618F0E-EC7A-4815-8803-0F1A3336D746}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4159,7 +4162,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4260,28 +4263,28 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>165</v>
+      </c>
+      <c r="D4" s="7">
+        <v>102991</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="7">
         <v>152</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>100148</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H4" s="7">
-        <v>165</v>
-      </c>
-      <c r="I4" s="7">
-        <v>102991</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>255</v>
@@ -4299,10 +4302,10 @@
         <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,34 +4314,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2072</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>665</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2072</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4347,13 +4350,13 @@
         <v>2737</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,34 +4365,34 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
+        <v>43</v>
+      </c>
+      <c r="D6" s="7">
+        <v>26591</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="7">
         <v>34</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>23351</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" s="7">
-        <v>43</v>
-      </c>
-      <c r="I6" s="7">
-        <v>26591</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M6" s="7">
         <v>77</v>
@@ -4398,13 +4401,13 @@
         <v>49942</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,25 +4416,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>211</v>
+      </c>
+      <c r="D7" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7">
         <v>187</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>124164</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="7">
-        <v>211</v>
-      </c>
-      <c r="I7" s="7">
-        <v>131654</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>38</v>
@@ -4466,34 +4469,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>259</v>
+      </c>
+      <c r="D8" s="7">
+        <v>165250</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H8" s="7">
         <v>317</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>215852</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H8" s="7">
-        <v>259</v>
-      </c>
-      <c r="I8" s="7">
-        <v>165250</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M8" s="7">
         <v>576</v>
@@ -4502,13 +4505,13 @@
         <v>381102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,34 +4520,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3448</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>626</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="J9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H9" s="7">
-        <v>5</v>
-      </c>
-      <c r="I9" s="7">
-        <v>3448</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>284</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -4553,10 +4556,10 @@
         <v>4074</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>286</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>287</v>
@@ -4568,34 +4571,34 @@
         <v>28</v>
       </c>
       <c r="C10" s="7">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7">
-        <v>41583</v>
+        <v>41819</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>288</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H10" s="7">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>41819</v>
+        <v>41583</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M10" s="7">
         <v>130</v>
@@ -4604,7 +4607,7 @@
         <v>83402</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>293</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>294</v>
@@ -4619,25 +4622,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>332</v>
+      </c>
+      <c r="D11" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7">
         <v>380</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>258061</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="7">
-        <v>332</v>
-      </c>
-      <c r="I11" s="7">
-        <v>210517</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>38</v>
@@ -4666,16 +4669,16 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D12" s="7">
-        <v>157609</v>
+        <v>158295</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>296</v>
@@ -4687,10 +4690,10 @@
         <v>298</v>
       </c>
       <c r="H12" s="7">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>158295</v>
+        <v>157609</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>299</v>
@@ -4726,7 +4729,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1288</v>
+        <v>1518</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>305</v>
@@ -4741,7 +4744,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1518</v>
+        <v>1288</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>307</v>
@@ -4762,10 +4765,10 @@
         <v>309</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,31 +4777,31 @@
         <v>28</v>
       </c>
       <c r="C14" s="7">
+        <v>44</v>
+      </c>
+      <c r="D14" s="7">
+        <v>29086</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H14" s="7">
         <v>41</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>29675</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="H14" s="7">
-        <v>44</v>
-      </c>
-      <c r="I14" s="7">
-        <v>29086</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>315</v>
@@ -4813,10 +4816,10 @@
         <v>316</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>317</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,25 +4828,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>272</v>
+      </c>
+      <c r="D15" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="7">
         <v>263</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>188572</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="7">
-        <v>272</v>
-      </c>
-      <c r="I15" s="7">
-        <v>188899</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -4872,40 +4875,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>217</v>
+      </c>
+      <c r="D16" s="7">
+        <v>153751</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H16" s="7">
         <v>197</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>145890</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H16" s="7">
-        <v>217</v>
-      </c>
-      <c r="I16" s="7">
-        <v>153751</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
         <v>414</v>
@@ -4914,13 +4917,13 @@
         <v>299641</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,31 +4935,31 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>764</v>
+        <v>540</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>146</v>
+        <v>328</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>540</v>
+        <v>764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4965,13 +4968,13 @@
         <v>1304</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,34 +4983,34 @@
         <v>28</v>
       </c>
       <c r="C18" s="7">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7">
+        <v>19010</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H18" s="7">
         <v>36</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>26575</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H18" s="7">
-        <v>28</v>
-      </c>
-      <c r="I18" s="7">
-        <v>19010</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -5016,13 +5019,13 @@
         <v>45585</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,25 +5034,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>246</v>
+      </c>
+      <c r="D19" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="7">
         <v>234</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>173230</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="7">
-        <v>246</v>
-      </c>
-      <c r="I19" s="7">
-        <v>173301</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -5084,34 +5087,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>867</v>
+      </c>
+      <c r="D20" s="7">
+        <v>580287</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H20" s="7">
         <v>886</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>619499</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H20" s="7">
-        <v>867</v>
-      </c>
-      <c r="I20" s="7">
-        <v>580287</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M20" s="7">
         <v>1753</v>
@@ -5120,13 +5123,13 @@
         <v>1199786</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,34 +5138,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7">
+        <v>7578</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H21" s="7">
         <v>5</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>3343</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H21" s="7">
-        <v>11</v>
-      </c>
-      <c r="I21" s="7">
-        <v>7578</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>350</v>
+        <v>121</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -5171,10 +5174,10 @@
         <v>10921</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>354</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>355</v>
@@ -5186,10 +5189,10 @@
         <v>28</v>
       </c>
       <c r="C22" s="7">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D22" s="7">
-        <v>121184</v>
+        <v>116506</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>356</v>
@@ -5201,10 +5204,10 @@
         <v>358</v>
       </c>
       <c r="H22" s="7">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I22" s="7">
-        <v>116506</v>
+        <v>121184</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>359</v>
@@ -5237,25 +5240,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D23" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="7">
         <v>1064</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>744026</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I23" s="7">
-        <v>704371</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>38</v>
@@ -5304,7 +5307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4B7D25-05CA-4430-93C0-0F08931074E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5250C251-DBCD-4808-9E42-158186495446}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5422,10 +5425,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D4" s="7">
-        <v>46330</v>
+        <v>42426</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>366</v>
@@ -5437,10 +5440,10 @@
         <v>368</v>
       </c>
       <c r="H4" s="7">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I4" s="7">
-        <v>42595</v>
+        <v>48202</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>369</v>
@@ -5455,7 +5458,7 @@
         <v>174</v>
       </c>
       <c r="N4" s="7">
-        <v>88924</v>
+        <v>90627</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>372</v>
@@ -5482,10 +5485,10 @@
         <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5497,10 +5500,10 @@
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>150</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5512,10 +5515,10 @@
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,49 +5527,49 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15085</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H6" s="7">
         <v>22</v>
       </c>
-      <c r="D6" s="7">
-        <v>12173</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H6" s="7">
-        <v>29</v>
-      </c>
       <c r="I6" s="7">
-        <v>14774</v>
+        <v>13242</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
       </c>
       <c r="N6" s="7">
-        <v>26947</v>
+        <v>28328</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,25 +5578,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="7">
-        <v>109</v>
-      </c>
       <c r="I7" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>38</v>
@@ -5608,7 +5611,7 @@
         <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -5628,49 +5631,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>224</v>
+      </c>
+      <c r="D8" s="7">
+        <v>136571</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H8" s="7">
         <v>233</v>
       </c>
-      <c r="D8" s="7">
-        <v>146309</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H8" s="7">
-        <v>224</v>
-      </c>
       <c r="I8" s="7">
-        <v>137245</v>
+        <v>151277</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M8" s="7">
         <v>457</v>
       </c>
       <c r="N8" s="7">
-        <v>283554</v>
+        <v>287848</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,10 +5691,10 @@
         <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>125</v>
+        <v>309</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5703,10 +5706,10 @@
         <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>309</v>
+        <v>394</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5718,10 +5721,10 @@
         <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,49 +5733,49 @@
         <v>28</v>
       </c>
       <c r="C10" s="7">
+        <v>34</v>
+      </c>
+      <c r="D10" s="7">
+        <v>22728</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H10" s="7">
         <v>43</v>
       </c>
-      <c r="D10" s="7">
-        <v>28990</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H10" s="7">
-        <v>34</v>
-      </c>
       <c r="I10" s="7">
-        <v>21520</v>
+        <v>31277</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
       </c>
       <c r="N10" s="7">
-        <v>50509</v>
+        <v>54005</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>398</v>
+        <v>104</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,25 +5784,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>258</v>
+      </c>
+      <c r="D11" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7">
         <v>276</v>
       </c>
-      <c r="D11" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="7">
-        <v>258</v>
-      </c>
       <c r="I11" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>38</v>
@@ -5814,7 +5817,7 @@
         <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>38</v>
@@ -5828,55 +5831,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>196</v>
+      </c>
+      <c r="D12" s="7">
+        <v>146758</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H12" s="7">
         <v>205</v>
       </c>
-      <c r="D12" s="7">
-        <v>170472</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="H12" s="7">
-        <v>196</v>
-      </c>
       <c r="I12" s="7">
-        <v>150213</v>
+        <v>178092</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M12" s="7">
         <v>401</v>
       </c>
       <c r="N12" s="7">
-        <v>320685</v>
+        <v>324851</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,10 +5897,10 @@
         <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>412</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5909,10 +5912,10 @@
         <v>22</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>410</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5924,10 +5927,10 @@
         <v>22</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,49 +5939,49 @@
         <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>32006</v>
+        <v>25591</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="H14" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7">
-        <v>25168</v>
+        <v>34398</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
       </c>
       <c r="N14" s="7">
-        <v>57174</v>
+        <v>59988</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,25 +5990,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>232</v>
+      </c>
+      <c r="D15" s="7">
+        <v>172349</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="7">
         <v>243</v>
       </c>
-      <c r="D15" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="7">
-        <v>232</v>
-      </c>
       <c r="I15" s="7">
-        <v>175381</v>
+        <v>212490</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -6020,7 +6023,7 @@
         <v>475</v>
       </c>
       <c r="N15" s="7">
-        <v>377859</v>
+        <v>384839</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>38</v>
@@ -6034,55 +6037,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>292</v>
+      </c>
+      <c r="D16" s="7">
+        <v>235627</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H16" s="7">
         <v>299</v>
       </c>
-      <c r="D16" s="7">
-        <v>253681</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="H16" s="7">
-        <v>292</v>
-      </c>
       <c r="I16" s="7">
-        <v>223890</v>
+        <v>267562</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M16" s="7">
         <v>591</v>
       </c>
       <c r="N16" s="7">
-        <v>477571</v>
+        <v>503188</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,10 +6103,10 @@
         <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6115,10 +6118,10 @@
         <v>22</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6130,10 +6133,10 @@
         <v>22</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>430</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,10 +6145,10 @@
         <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D18" s="7">
-        <v>35743</v>
+        <v>39831</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>431</v>
@@ -6157,34 +6160,34 @@
         <v>433</v>
       </c>
       <c r="H18" s="7">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I18" s="7">
-        <v>36743</v>
+        <v>37921</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
       </c>
       <c r="N18" s="7">
-        <v>72486</v>
+        <v>77752</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,7 +6199,7 @@
         <v>342</v>
       </c>
       <c r="D19" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>38</v>
@@ -6211,7 +6214,7 @@
         <v>342</v>
       </c>
       <c r="I19" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -6226,7 +6229,7 @@
         <v>684</v>
       </c>
       <c r="N19" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -6246,49 +6249,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>831</v>
+        <v>792</v>
       </c>
       <c r="D20" s="7">
-        <v>616792</v>
+        <v>561382</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>439</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>440</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>441</v>
       </c>
       <c r="H20" s="7">
-        <v>792</v>
+        <v>831</v>
       </c>
       <c r="I20" s="7">
-        <v>553942</v>
+        <v>645134</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>443</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>1623</v>
       </c>
       <c r="N20" s="7">
-        <v>1170734</v>
+        <v>1206516</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6306,10 +6309,10 @@
         <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6321,10 +6324,10 @@
         <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6336,10 +6339,10 @@
         <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,49 +6351,49 @@
         <v>28</v>
       </c>
       <c r="C22" s="7">
+        <v>149</v>
+      </c>
+      <c r="D22" s="7">
+        <v>103235</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H22" s="7">
         <v>146</v>
       </c>
-      <c r="D22" s="7">
-        <v>108912</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="H22" s="7">
-        <v>149</v>
-      </c>
       <c r="I22" s="7">
-        <v>98205</v>
+        <v>116838</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M22" s="7">
         <v>295</v>
       </c>
       <c r="N22" s="7">
-        <v>207117</v>
+        <v>220073</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,25 +6402,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>941</v>
+      </c>
+      <c r="D23" s="7">
+        <v>664617</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="7">
         <v>977</v>
       </c>
-      <c r="D23" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="7">
-        <v>941</v>
-      </c>
       <c r="I23" s="7">
-        <v>652147</v>
+        <v>761972</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>38</v>
@@ -6432,7 +6435,7 @@
         <v>1918</v>
       </c>
       <c r="N23" s="7">
-        <v>1377851</v>
+        <v>1426589</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>38</v>
